--- a/src/assets/files/menu-table.xlsx
+++ b/src/assets/files/menu-table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115CD44E-D40A-4C57-8DE4-6CBC96D6C510}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>Cháo bò rau củ</t>
   </si>
@@ -125,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -212,72 +211,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="double">
         <color indexed="64"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -306,6 +281,32 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -316,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -324,43 +325,49 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{671E79E9-90F6-4A7E-A06A-2E72FC56EE88}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,25 +644,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickTop="1">
+    <row r="1" spans="1:7" ht="16.2" thickTop="1">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -671,122 +678,189 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:7" ht="31.2">
+      <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="12"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="63">
-      <c r="A4" s="13"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:7" ht="15.6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="62.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5">
-      <c r="A5" s="10" t="s">
+    <row r="7" spans="1:7" ht="31.2">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="4" t="s">
+    <row r="8" spans="1:7" ht="31.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
